--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>caculated-age-observation</t>
-  </si>
-  <si>
-    <t>Calculated Age</t>
+    <t>eicr-anon-caculated-age</t>
+  </si>
+  <si>
+    <t>eICR Anonymized Calculated Age</t>
   </si>
   <si>
     <t/>
